--- a/DL_classification/Results.xlsx
+++ b/DL_classification/Results.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FINAELB\Documents\Aalto\Dayyan\TL\TL_CWT\DL_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45EC8664-E3FC-4C35-A635-291A0BE48FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E5CBC2-5F52-4F3D-BCDE-2077816E9B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="12744" windowWidth="23256" windowHeight="12456" xr2:uid="{9ED72D94-EC49-49C2-8472-3C4451956AF6}"/>
+    <workbookView xWindow="22605" yWindow="8565" windowWidth="31500" windowHeight="26190" xr2:uid="{9ED72D94-EC49-49C2-8472-3C4451956AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioAlpha - Initialization" sheetId="1" r:id="rId1"/>
     <sheet name="CASE 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="265">
   <si>
     <t>Training Accuracy</t>
   </si>
@@ -52,9 +51,6 @@
     <t xml:space="preserve">Model name saving </t>
   </si>
   <si>
-    <t>model_v1</t>
-  </si>
-  <si>
     <t>restnet18</t>
   </si>
   <si>
@@ -70,53 +66,779 @@
     <t>googlenet</t>
   </si>
   <si>
+    <t>CWT</t>
+  </si>
+  <si>
+    <t>STFT</t>
+  </si>
+  <si>
+    <t>Using all data</t>
+  </si>
+  <si>
+    <t>Validation Accuracy</t>
+  </si>
+  <si>
+    <t>Training Loss</t>
+  </si>
+  <si>
+    <t>Validation Loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Loss </t>
+  </si>
+  <si>
+    <t>model1_v1</t>
+  </si>
+  <si>
+    <t>resnet18</t>
+  </si>
+  <si>
+    <t>99.28%</t>
+  </si>
+  <si>
+    <t>99.35%</t>
+  </si>
+  <si>
+    <t>99.05%</t>
+  </si>
+  <si>
+    <t>0.091254</t>
+  </si>
+  <si>
+    <t>0.079147</t>
+  </si>
+  <si>
+    <t>0.0787398</t>
+  </si>
+  <si>
+    <t>model2_v1</t>
+  </si>
+  <si>
+    <t>99.57%</t>
+  </si>
+  <si>
+    <t>99.22%</t>
+  </si>
+  <si>
+    <t>0.085157</t>
+  </si>
+  <si>
+    <t>0.125057</t>
+  </si>
+  <si>
+    <t>0.100646</t>
+  </si>
+  <si>
+    <t>model3_v1</t>
+  </si>
+  <si>
+    <t>99.14%</t>
+  </si>
+  <si>
+    <t>99.03%</t>
+  </si>
+  <si>
+    <t>98.96%</t>
+  </si>
+  <si>
+    <t>0.227158</t>
+  </si>
+  <si>
+    <t>0.144163</t>
+  </si>
+  <si>
+    <t>0.143093</t>
+  </si>
+  <si>
+    <t>model4_v1</t>
+  </si>
+  <si>
+    <t>97.70%</t>
+  </si>
+  <si>
+    <t>97.52%</t>
+  </si>
+  <si>
+    <t>97.93%</t>
+  </si>
+  <si>
+    <t>0.171196</t>
+  </si>
+  <si>
+    <t>0.0771488</t>
+  </si>
+  <si>
+    <t>0.0548101</t>
+  </si>
+  <si>
+    <t>model5_v1</t>
+  </si>
+  <si>
+    <t>99.46%</t>
+  </si>
+  <si>
+    <t>99.48%</t>
+  </si>
+  <si>
+    <t>0.157715</t>
+  </si>
+  <si>
+    <t>0.126403</t>
+  </si>
+  <si>
+    <t>0.116488</t>
+  </si>
+  <si>
+    <t>model1_v2</t>
+  </si>
+  <si>
+    <t>0.485067</t>
+  </si>
+  <si>
+    <t>0.586170</t>
+  </si>
+  <si>
+    <t>model2_v2</t>
+  </si>
+  <si>
+    <t>model3_v2</t>
+  </si>
+  <si>
+    <t>model4_v2</t>
+  </si>
+  <si>
+    <t>model5_v2</t>
+  </si>
+  <si>
+    <t>CWT without Filter</t>
+  </si>
+  <si>
+    <t>model6_v1</t>
+  </si>
+  <si>
     <t>inception_v3</t>
   </si>
   <si>
-    <t xml:space="preserve">Case 1: </t>
-  </si>
-  <si>
-    <t>CWT</t>
-  </si>
-  <si>
-    <t>STFT</t>
-  </si>
-  <si>
-    <t>Using all data</t>
-  </si>
-  <si>
-    <t>Validation Accuracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case 2: </t>
-  </si>
-  <si>
-    <t>train/validate on 25, 50, 75% and test on 0 and 100%</t>
-  </si>
-  <si>
-    <t>train/validate on 0-100% and test on 25,50,75100%</t>
-  </si>
-  <si>
-    <t>model_v2</t>
-  </si>
-  <si>
-    <t>model_v3</t>
-  </si>
-  <si>
-    <t>model_v4</t>
+    <t>train/validate on 0-100% and test on 25,50,75%</t>
+  </si>
+  <si>
+    <t>model1_v3</t>
+  </si>
+  <si>
+    <t>model2_v3</t>
+  </si>
+  <si>
+    <t>model3_v3</t>
+  </si>
+  <si>
+    <t>model4_v3</t>
+  </si>
+  <si>
+    <t>model5_v3</t>
+  </si>
+  <si>
+    <t>model1_v4</t>
+  </si>
+  <si>
+    <t>model2_v4</t>
+  </si>
+  <si>
+    <t>model3_v4</t>
+  </si>
+  <si>
+    <t>model4_v4</t>
+  </si>
+  <si>
+    <t>Test Accuracy</t>
+  </si>
+  <si>
+    <t>0.844763</t>
+  </si>
+  <si>
+    <t>0.893252</t>
+  </si>
+  <si>
+    <t>Test Loss</t>
+  </si>
+  <si>
+    <t>0.932231</t>
+  </si>
+  <si>
+    <t>model_v5</t>
   </si>
   <si>
     <t>model_v6</t>
   </si>
   <si>
-    <t>model_v8</t>
+    <t>train/validate on 25,50,75% and test on 0-100%</t>
+  </si>
+  <si>
+    <t>Scenario 02</t>
+  </si>
+  <si>
+    <t>Scenario 03</t>
+  </si>
+  <si>
+    <t>Scenario 04</t>
+  </si>
+  <si>
+    <t>Scenario 00</t>
+  </si>
+  <si>
+    <t>Scenario 01</t>
+  </si>
+  <si>
+    <t>Scenario 06</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Train Accuracy</t>
+  </si>
+  <si>
+    <t>Train Loss</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>0.075259</t>
+  </si>
+  <si>
+    <t>0.084471</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>99.137931</t>
+  </si>
+  <si>
+    <t>0.070188</t>
+  </si>
+  <si>
+    <t>0.084305</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>98.922414</t>
+  </si>
+  <si>
+    <t>0.131648</t>
+  </si>
+  <si>
+    <t>0.142863</t>
+  </si>
+  <si>
+    <t>Model 4</t>
+  </si>
+  <si>
+    <t>0.071190</t>
+  </si>
+  <si>
+    <t>0.080288</t>
+  </si>
+  <si>
+    <t>Model 5</t>
+  </si>
+  <si>
+    <t>0.116101</t>
+  </si>
+  <si>
+    <t>0.146076</t>
+  </si>
+  <si>
+    <t>97.155172</t>
+  </si>
+  <si>
+    <t>95.905172</t>
+  </si>
+  <si>
+    <t>95.689655</t>
+  </si>
+  <si>
+    <t>0.245245</t>
+  </si>
+  <si>
+    <t>0.273509</t>
+  </si>
+  <si>
+    <t>0.312337</t>
+  </si>
+  <si>
+    <t>93.620690</t>
+  </si>
+  <si>
+    <t>91.379310</t>
+  </si>
+  <si>
+    <t>90.517241</t>
+  </si>
+  <si>
+    <t>0.280907</t>
+  </si>
+  <si>
+    <t>0.287158</t>
+  </si>
+  <si>
+    <t>0.355157</t>
+  </si>
+  <si>
+    <t>68.017241</t>
+  </si>
+  <si>
+    <t>68.965517</t>
+  </si>
+  <si>
+    <t>68.534483</t>
+  </si>
+  <si>
+    <t>1.001933</t>
+  </si>
+  <si>
+    <t>1.004700</t>
+  </si>
+  <si>
+    <t>1.035186</t>
+  </si>
+  <si>
+    <t>58.706897</t>
+  </si>
+  <si>
+    <t>60.129310</t>
+  </si>
+  <si>
+    <t>59.051724</t>
+  </si>
+  <si>
+    <t>1.075932</t>
+  </si>
+  <si>
+    <t>1.093047</t>
+  </si>
+  <si>
+    <t>1.094790</t>
+  </si>
+  <si>
+    <t>86.206897</t>
+  </si>
+  <si>
+    <t>85.129310</t>
+  </si>
+  <si>
+    <t>81.896552</t>
+  </si>
+  <si>
+    <t>0.497048</t>
+  </si>
+  <si>
+    <t>99.827437</t>
+  </si>
+  <si>
+    <t>99.568966</t>
+  </si>
+  <si>
+    <t>0.055422</t>
+  </si>
+  <si>
+    <t>0.067502</t>
+  </si>
+  <si>
+    <t>0.058974</t>
+  </si>
+  <si>
+    <t>99.482312</t>
+  </si>
+  <si>
+    <t>0.026249</t>
+  </si>
+  <si>
+    <t>0.044073</t>
+  </si>
+  <si>
+    <t>0.040119</t>
+  </si>
+  <si>
+    <t>98.015531</t>
+  </si>
+  <si>
+    <t>98.275862</t>
+  </si>
+  <si>
+    <t>96.982759</t>
+  </si>
+  <si>
+    <t>0.152192</t>
+  </si>
+  <si>
+    <t>0.150395</t>
+  </si>
+  <si>
+    <t>0.169587</t>
+  </si>
+  <si>
+    <t>99.137187</t>
+  </si>
+  <si>
+    <t>98.706897</t>
+  </si>
+  <si>
+    <t>0.043909</t>
+  </si>
+  <si>
+    <t>0.071249</t>
+  </si>
+  <si>
+    <t>0.060569</t>
+  </si>
+  <si>
+    <t>98.705781</t>
+  </si>
+  <si>
+    <t>98.491379</t>
+  </si>
+  <si>
+    <t>97.844828</t>
+  </si>
+  <si>
+    <t>0.117766</t>
+  </si>
+  <si>
+    <t>0.127043</t>
+  </si>
+  <si>
+    <t>0.14804</t>
+  </si>
+  <si>
+    <t>Scenario 05 - STFT without filter</t>
+  </si>
+  <si>
+    <t>85.000000</t>
+  </si>
+  <si>
+    <t>82.327586</t>
+  </si>
+  <si>
+    <t>82.758621</t>
+  </si>
+  <si>
+    <t>0.497336</t>
+  </si>
+  <si>
+    <t>0.524280</t>
+  </si>
+  <si>
+    <t>0.544741</t>
+  </si>
+  <si>
+    <t>85.258621</t>
+  </si>
+  <si>
+    <t>82.543103</t>
+  </si>
+  <si>
+    <t>80.172414</t>
+  </si>
+  <si>
+    <t>0.434252</t>
+  </si>
+  <si>
+    <t>0.524824</t>
+  </si>
+  <si>
+    <t>0.568995</t>
+  </si>
+  <si>
+    <t>29.396552</t>
+  </si>
+  <si>
+    <t>28.663793</t>
+  </si>
+  <si>
+    <t>28.879310</t>
+  </si>
+  <si>
+    <t>1.265050</t>
+  </si>
+  <si>
+    <t>1.251188</t>
+  </si>
+  <si>
+    <t>1.252503</t>
+  </si>
+  <si>
+    <t>26.810345</t>
+  </si>
+  <si>
+    <t>25.862069</t>
+  </si>
+  <si>
+    <t>1.348986</t>
+  </si>
+  <si>
+    <t>1.339337</t>
+  </si>
+  <si>
+    <t>1.344213</t>
+  </si>
+  <si>
+    <t>73.275862</t>
+  </si>
+  <si>
+    <t>70.689655</t>
+  </si>
+  <si>
+    <t>71.982759</t>
+  </si>
+  <si>
+    <t>74.396552</t>
+  </si>
+  <si>
+    <t>66.402715</t>
+  </si>
+  <si>
+    <t>57.327586</t>
+  </si>
+  <si>
+    <t>0.038606</t>
+  </si>
+  <si>
+    <t>71.724138</t>
+  </si>
+  <si>
+    <t>62.895928</t>
+  </si>
+  <si>
+    <t>53.160920</t>
+  </si>
+  <si>
+    <t>0.070869</t>
+  </si>
+  <si>
+    <t>70.948276</t>
+  </si>
+  <si>
+    <t>61.877828</t>
+  </si>
+  <si>
+    <t>51.867816</t>
+  </si>
+  <si>
+    <t>0.126614</t>
+  </si>
+  <si>
+    <t>65.948276</t>
+  </si>
+  <si>
+    <t>55.429864</t>
+  </si>
+  <si>
+    <t>43.534483</t>
+  </si>
+  <si>
+    <t>0.065097</t>
+  </si>
+  <si>
+    <t>80.689655</t>
+  </si>
+  <si>
+    <t>74.773756</t>
+  </si>
+  <si>
+    <t>68.103448</t>
+  </si>
+  <si>
+    <t>0.138523</t>
+  </si>
+  <si>
+    <t>0.039392</t>
+  </si>
+  <si>
+    <t>1.070203</t>
+  </si>
+  <si>
+    <t>0.090143</t>
+  </si>
+  <si>
+    <t>1.042571</t>
+  </si>
+  <si>
+    <t>0.119291</t>
+  </si>
+  <si>
+    <t>1.365943</t>
+  </si>
+  <si>
+    <t>0.079749</t>
+  </si>
+  <si>
+    <t>1.716823</t>
+  </si>
+  <si>
+    <t>0.144595</t>
+  </si>
+  <si>
+    <t>0.929873</t>
+  </si>
+  <si>
+    <t>83.534483</t>
+  </si>
+  <si>
+    <t>74.327957</t>
+  </si>
+  <si>
+    <t>0.012010</t>
+  </si>
+  <si>
+    <t>0.021753</t>
+  </si>
+  <si>
+    <t>1.233207</t>
+  </si>
+  <si>
+    <t>81.379310</t>
+  </si>
+  <si>
+    <t>70.967742</t>
+  </si>
+  <si>
+    <t>53.879310</t>
+  </si>
+  <si>
+    <t>0.044643</t>
+  </si>
+  <si>
+    <t>0.057088</t>
+  </si>
+  <si>
+    <t>1.178395</t>
+  </si>
+  <si>
+    <t>85.086207</t>
+  </si>
+  <si>
+    <t>77.016129</t>
+  </si>
+  <si>
+    <t>63.146552</t>
+  </si>
+  <si>
+    <t>0.111395</t>
+  </si>
+  <si>
+    <t>0.091900</t>
+  </si>
+  <si>
+    <t>0.822449</t>
+  </si>
+  <si>
+    <t>79.310345</t>
+  </si>
+  <si>
+    <t>68.145161</t>
+  </si>
+  <si>
+    <t>49.353448</t>
+  </si>
+  <si>
+    <t>0.043728</t>
+  </si>
+  <si>
+    <t>0.049063</t>
+  </si>
+  <si>
+    <t>3.237087</t>
+  </si>
+  <si>
+    <t>77.500000</t>
+  </si>
+  <si>
+    <t>65.188172</t>
+  </si>
+  <si>
+    <t>44.612069</t>
+  </si>
+  <si>
+    <t>0.089644</t>
+  </si>
+  <si>
+    <t>0.116899</t>
+  </si>
+  <si>
+    <t>1.080077</t>
+  </si>
+  <si>
+    <t>model_v7</t>
+  </si>
+  <si>
+    <t>98.362069</t>
+  </si>
+  <si>
+    <t>97.185430</t>
+  </si>
+  <si>
+    <t>93.965517</t>
+  </si>
+  <si>
+    <t>98.103448</t>
+  </si>
+  <si>
+    <t>96.854305</t>
+  </si>
+  <si>
+    <t>93.103448</t>
+  </si>
+  <si>
+    <t>97.586207</t>
+  </si>
+  <si>
+    <t>96.192053</t>
+  </si>
+  <si>
+    <t>90.948276</t>
+  </si>
+  <si>
+    <t>92.327586</t>
+  </si>
+  <si>
+    <t>85.761589</t>
+  </si>
+  <si>
+    <t>64.655172</t>
+  </si>
+  <si>
+    <t>94.051724</t>
+  </si>
+  <si>
+    <t>89.072848</t>
+  </si>
+  <si>
+    <t>73.706897</t>
+  </si>
+  <si>
+    <t>0.300255</t>
+  </si>
+  <si>
+    <t>0.268473</t>
+  </si>
+  <si>
+    <t>0.417479</t>
+  </si>
+  <si>
+    <t>1.568532</t>
+  </si>
+  <si>
+    <t>0.670321</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,7 +848,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,17 +920,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -212,15 +930,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -273,11 +982,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -300,19 +1029,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -652,274 +1396,1189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC7750E-FD89-4497-B69D-DC53D6BE3D4B}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:AC115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="13" customWidth="1"/>
+    <col min="3" max="4" width="21.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="21.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="16.44140625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="21.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5546875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="21.44140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="24.5546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="20.44140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20" style="1" customWidth="1"/>
+    <col min="25" max="25" width="16.109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="22.88671875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="21.88671875" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:29" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="W1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" s="3" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="I12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>3</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="9"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="2"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="7"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="9"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="2"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="F32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B35" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B36" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B37" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>10</v>
+      <c r="C37" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B38" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="20:26" x14ac:dyDescent="0.3">
+      <c r="T110" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U110" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W110" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X110" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z110" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="20:26" x14ac:dyDescent="0.3">
+      <c r="T111" s="1">
+        <v>0</v>
+      </c>
+      <c r="U111" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="20:26" x14ac:dyDescent="0.3">
+      <c r="T112" s="1">
+        <v>1</v>
+      </c>
+      <c r="U112" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T113" s="1">
+        <v>2</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T114" s="1">
+        <v>3</v>
+      </c>
+      <c r="U114" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="20:21" x14ac:dyDescent="0.3">
+      <c r="T115" s="1">
+        <v>4</v>
+      </c>
+      <c r="U115" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +2593,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DL_classification/Results.xlsx
+++ b/DL_classification/Results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FINAELB\Documents\Aalto\Dayyan\TL\TL_CWT\DL_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E5CBC2-5F52-4F3D-BCDE-2077816E9B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93408121-3AFD-4911-928B-47AC75FA5058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22605" yWindow="8565" windowWidth="31500" windowHeight="26190" xr2:uid="{9ED72D94-EC49-49C2-8472-3C4451956AF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9ED72D94-EC49-49C2-8472-3C4451956AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioAlpha - Initialization" sheetId="1" r:id="rId1"/>
-    <sheet name="CASE 2" sheetId="2" r:id="rId2"/>
+    <sheet name="ScenarioBetha - 10 000" sheetId="2" r:id="rId2"/>
+    <sheet name="ScenarioGamma - 5000" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="417">
   <si>
     <t>Training Accuracy</t>
   </si>
@@ -832,6 +833,462 @@
   </si>
   <si>
     <t>0.670321</t>
+  </si>
+  <si>
+    <t>Scenario 07</t>
+  </si>
+  <si>
+    <t>model_v8</t>
+  </si>
+  <si>
+    <t>98.622881</t>
+  </si>
+  <si>
+    <t>98.411297</t>
+  </si>
+  <si>
+    <t>98.172669</t>
+  </si>
+  <si>
+    <t>0.057920</t>
+  </si>
+  <si>
+    <t>0.067129</t>
+  </si>
+  <si>
+    <t>0.138556</t>
+  </si>
+  <si>
+    <t>96.687211</t>
+  </si>
+  <si>
+    <t>95.862069</t>
+  </si>
+  <si>
+    <t>95.127119</t>
+  </si>
+  <si>
+    <t>0.032739</t>
+  </si>
+  <si>
+    <t>0.053703</t>
+  </si>
+  <si>
+    <t>0.276424</t>
+  </si>
+  <si>
+    <t>96.109399</t>
+  </si>
+  <si>
+    <t>95.492611</t>
+  </si>
+  <si>
+    <t>95.036320</t>
+  </si>
+  <si>
+    <t>0.108323</t>
+  </si>
+  <si>
+    <t>0.123062</t>
+  </si>
+  <si>
+    <t>0.303130</t>
+  </si>
+  <si>
+    <t>97.226502</t>
+  </si>
+  <si>
+    <t>96.798030</t>
+  </si>
+  <si>
+    <t>96.277240</t>
+  </si>
+  <si>
+    <t>0.078356</t>
+  </si>
+  <si>
+    <t>0.079411</t>
+  </si>
+  <si>
+    <t>0.215249</t>
+  </si>
+  <si>
+    <t>95.974576</t>
+  </si>
+  <si>
+    <t>95.221675</t>
+  </si>
+  <si>
+    <t>94.612591</t>
+  </si>
+  <si>
+    <t>0.112308</t>
+  </si>
+  <si>
+    <t>0.127652</t>
+  </si>
+  <si>
+    <t>0.326708</t>
+  </si>
+  <si>
+    <t>99.727603</t>
+  </si>
+  <si>
+    <t>99.585635</t>
+  </si>
+  <si>
+    <t>99.364407</t>
+  </si>
+  <si>
+    <t>0.000349</t>
+  </si>
+  <si>
+    <t>0.001486</t>
+  </si>
+  <si>
+    <t>0.042116</t>
+  </si>
+  <si>
+    <t>inceptionv3</t>
+  </si>
+  <si>
+    <t>model_v9</t>
+  </si>
+  <si>
+    <t>Scenario 08</t>
+  </si>
+  <si>
+    <t>Scenario 09</t>
+  </si>
+  <si>
+    <t>model_v10</t>
+  </si>
+  <si>
+    <t>Scenario 10</t>
+  </si>
+  <si>
+    <t>model_v11</t>
+  </si>
+  <si>
+    <t>90.084746</t>
+  </si>
+  <si>
+    <t>85.016287</t>
+  </si>
+  <si>
+    <t>68.644068</t>
+  </si>
+  <si>
+    <t>0.211329</t>
+  </si>
+  <si>
+    <t>0.228992</t>
+  </si>
+  <si>
+    <t>0.609390</t>
+  </si>
+  <si>
+    <t>93.474576</t>
+  </si>
+  <si>
+    <t>90.228013</t>
+  </si>
+  <si>
+    <t>83.898305</t>
+  </si>
+  <si>
+    <t>0.214379</t>
+  </si>
+  <si>
+    <t>0.263629</t>
+  </si>
+  <si>
+    <t>0.424915</t>
+  </si>
+  <si>
+    <t>63.050847</t>
+  </si>
+  <si>
+    <t>60.667752</t>
+  </si>
+  <si>
+    <t>52.542373</t>
+  </si>
+  <si>
+    <t>0.932675</t>
+  </si>
+  <si>
+    <t>0.939970</t>
+  </si>
+  <si>
+    <t>0.938925</t>
+  </si>
+  <si>
+    <t>64.364407</t>
+  </si>
+  <si>
+    <t>64.657980</t>
+  </si>
+  <si>
+    <t>63.559322</t>
+  </si>
+  <si>
+    <t>1.047527</t>
+  </si>
+  <si>
+    <t>1.049439</t>
+  </si>
+  <si>
+    <t>1.037579</t>
+  </si>
+  <si>
+    <t>87.923729</t>
+  </si>
+  <si>
+    <t>84.771987</t>
+  </si>
+  <si>
+    <t>74.788136</t>
+  </si>
+  <si>
+    <t>0.373244</t>
+  </si>
+  <si>
+    <t>0.371984</t>
+  </si>
+  <si>
+    <t>0.508475</t>
+  </si>
+  <si>
+    <t>98.389831</t>
+  </si>
+  <si>
+    <t>96.905537</t>
+  </si>
+  <si>
+    <t>91.949153</t>
+  </si>
+  <si>
+    <t>0.000362</t>
+  </si>
+  <si>
+    <t>0.000387</t>
+  </si>
+  <si>
+    <t>0.375501</t>
+  </si>
+  <si>
+    <t>97.627119</t>
+  </si>
+  <si>
+    <t>95.602606</t>
+  </si>
+  <si>
+    <t>90.042373</t>
+  </si>
+  <si>
+    <t>0.043346</t>
+  </si>
+  <si>
+    <t>0.062636</t>
+  </si>
+  <si>
+    <t>0.255858</t>
+  </si>
+  <si>
+    <t>96.016949</t>
+  </si>
+  <si>
+    <t>92.833876</t>
+  </si>
+  <si>
+    <t>84.745763</t>
+  </si>
+  <si>
+    <t>0.063034</t>
+  </si>
+  <si>
+    <t>0.095396</t>
+  </si>
+  <si>
+    <t>0.364771</t>
+  </si>
+  <si>
+    <t>96.991525</t>
+  </si>
+  <si>
+    <t>96.661238</t>
+  </si>
+  <si>
+    <t>95.550847</t>
+  </si>
+  <si>
+    <t>0.144844</t>
+  </si>
+  <si>
+    <t>0.141552</t>
+  </si>
+  <si>
+    <t>0.210903</t>
+  </si>
+  <si>
+    <t>96.949153</t>
+  </si>
+  <si>
+    <t>95.358306</t>
+  </si>
+  <si>
+    <t>91.313559</t>
+  </si>
+  <si>
+    <t>0.060231</t>
+  </si>
+  <si>
+    <t>0.070426</t>
+  </si>
+  <si>
+    <t>0.207525</t>
+  </si>
+  <si>
+    <t>97.457627</t>
+  </si>
+  <si>
+    <t>95.846906</t>
+  </si>
+  <si>
+    <t>92.796610</t>
+  </si>
+  <si>
+    <t>0.105777</t>
+  </si>
+  <si>
+    <t>0.142657</t>
+  </si>
+  <si>
+    <t>0.236763</t>
+  </si>
+  <si>
+    <t>99.830508</t>
+  </si>
+  <si>
+    <t>99.674267</t>
+  </si>
+  <si>
+    <t>0.000340</t>
+  </si>
+  <si>
+    <t>0.008744</t>
+  </si>
+  <si>
+    <t>0.053519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	85.381356	</t>
+  </si>
+  <si>
+    <t>84.576271</t>
+  </si>
+  <si>
+    <t>65.042373</t>
+  </si>
+  <si>
+    <t>50.593220</t>
+  </si>
+  <si>
+    <t>77.457627</t>
+  </si>
+  <si>
+    <t>99.915254</t>
+  </si>
+  <si>
+    <t>85.830619</t>
+  </si>
+  <si>
+    <t>82.980456</t>
+  </si>
+  <si>
+    <t>67.345277</t>
+  </si>
+  <si>
+    <t>49.185668</t>
+  </si>
+  <si>
+    <t>75.407166</t>
+  </si>
+  <si>
+    <t>99.837134</t>
+  </si>
+  <si>
+    <t>88.559322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.381356	</t>
+  </si>
+  <si>
+    <t>71.822034</t>
+  </si>
+  <si>
+    <t>43.432203</t>
+  </si>
+  <si>
+    <t>74.364407</t>
+  </si>
+  <si>
+    <t>99.576271</t>
+  </si>
+  <si>
+    <t>0.522318</t>
+  </si>
+  <si>
+    <t>0.503816</t>
+  </si>
+  <si>
+    <t>0.993737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.313484	</t>
+  </si>
+  <si>
+    <t>0.684670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000957	</t>
+  </si>
+  <si>
+    <t>0.529665</t>
+  </si>
+  <si>
+    <t>0.551837</t>
+  </si>
+  <si>
+    <t>0.981733</t>
+  </si>
+  <si>
+    <t>1.312813</t>
+  </si>
+  <si>
+    <t>0.733525</t>
+  </si>
+  <si>
+    <t>0.004141</t>
+  </si>
+  <si>
+    <t>0.464089</t>
+  </si>
+  <si>
+    <t>0.489256</t>
+  </si>
+  <si>
+    <t>0.948867</t>
+  </si>
+  <si>
+    <t>1.327955</t>
+  </si>
+  <si>
+    <t>0.730239</t>
+  </si>
+  <si>
+    <t>0.021215</t>
   </si>
 </sst>
 </file>
@@ -1050,17 +1507,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC7750E-FD89-4497-B69D-DC53D6BE3D4B}">
   <dimension ref="A1:AC115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView zoomScale="54" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1626,16 +2083,16 @@
       <c r="W3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="1" t="s">
         <v>162</v>
       </c>
       <c r="AB3" s="1" t="s">
@@ -2408,10 +2865,10 @@
       <c r="G33" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="I33" s="16"/>
+      <c r="I33" s="15"/>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
@@ -2433,13 +2890,13 @@
       <c r="F34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="I34" s="16"/>
+      <c r="I34" s="15"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
@@ -2457,13 +2914,13 @@
       <c r="F35" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I35" s="16"/>
+      <c r="I35" s="15"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
@@ -2481,13 +2938,13 @@
       <c r="F36" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="I36" s="16"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
@@ -2505,13 +2962,13 @@
       <c r="F37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="I37" s="16"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
@@ -2589,9 +3046,787 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AB1432-3178-4F93-AF9A-C2C5F4EF6D76}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A6309D-AFFF-49AA-A922-C6EC61616F8E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/DL_classification/Results.xlsx
+++ b/DL_classification/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FINAELB\Documents\Aalto\Dayyan\TL\TL_CWT\DL_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93408121-3AFD-4911-928B-47AC75FA5058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374443EB-C90D-48FC-970E-23ABA6E3DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9ED72D94-EC49-49C2-8472-3C4451956AF6}"/>
   </bookViews>
@@ -17,6 +17,24 @@
     <sheet name="ScenarioBetha - 10 000" sheetId="2" r:id="rId2"/>
     <sheet name="ScenarioGamma - 5000" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'ScenarioBetha - 10 000'!$B$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'ScenarioBetha - 10 000'!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'ScenarioBetha - 10 000'!$B$8</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'ScenarioBetha - 10 000'!$C$3:$C$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'ScenarioBetha - 10 000'!$C$8</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'ScenarioBetha - 10 000'!$B$8</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'ScenarioBetha - 10 000'!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'ScenarioBetha - 10 000'!$C$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'ScenarioBetha - 10 000'!$C$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'ScenarioBetha - 10 000'!$B$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'ScenarioBetha - 10 000'!$C$3:$C$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'ScenarioBetha - 10 000'!$C$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'ScenarioBetha - 10 000'!$B$3:$B$8</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'ScenarioBetha - 10 000'!$C$3:$C$8</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'ScenarioBetha - 10 000'!$M$19</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">('ScenarioBetha - 10 000'!$C$3,'ScenarioBetha - 10 000'!$C$12)</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="277">
   <si>
     <t>Training Accuracy</t>
   </si>
@@ -841,114 +859,6 @@
     <t>model_v8</t>
   </si>
   <si>
-    <t>98.622881</t>
-  </si>
-  <si>
-    <t>98.411297</t>
-  </si>
-  <si>
-    <t>98.172669</t>
-  </si>
-  <si>
-    <t>0.057920</t>
-  </si>
-  <si>
-    <t>0.067129</t>
-  </si>
-  <si>
-    <t>0.138556</t>
-  </si>
-  <si>
-    <t>96.687211</t>
-  </si>
-  <si>
-    <t>95.862069</t>
-  </si>
-  <si>
-    <t>95.127119</t>
-  </si>
-  <si>
-    <t>0.032739</t>
-  </si>
-  <si>
-    <t>0.053703</t>
-  </si>
-  <si>
-    <t>0.276424</t>
-  </si>
-  <si>
-    <t>96.109399</t>
-  </si>
-  <si>
-    <t>95.492611</t>
-  </si>
-  <si>
-    <t>95.036320</t>
-  </si>
-  <si>
-    <t>0.108323</t>
-  </si>
-  <si>
-    <t>0.123062</t>
-  </si>
-  <si>
-    <t>0.303130</t>
-  </si>
-  <si>
-    <t>97.226502</t>
-  </si>
-  <si>
-    <t>96.798030</t>
-  </si>
-  <si>
-    <t>96.277240</t>
-  </si>
-  <si>
-    <t>0.078356</t>
-  </si>
-  <si>
-    <t>0.079411</t>
-  </si>
-  <si>
-    <t>0.215249</t>
-  </si>
-  <si>
-    <t>95.974576</t>
-  </si>
-  <si>
-    <t>95.221675</t>
-  </si>
-  <si>
-    <t>94.612591</t>
-  </si>
-  <si>
-    <t>0.112308</t>
-  </si>
-  <si>
-    <t>0.127652</t>
-  </si>
-  <si>
-    <t>0.326708</t>
-  </si>
-  <si>
-    <t>99.727603</t>
-  </si>
-  <si>
-    <t>99.585635</t>
-  </si>
-  <si>
-    <t>99.364407</t>
-  </si>
-  <si>
-    <t>0.000349</t>
-  </si>
-  <si>
-    <t>0.001486</t>
-  </si>
-  <si>
-    <t>0.042116</t>
-  </si>
-  <si>
     <t>inceptionv3</t>
   </si>
   <si>
@@ -970,325 +880,13 @@
     <t>model_v11</t>
   </si>
   <si>
-    <t>90.084746</t>
-  </si>
-  <si>
-    <t>85.016287</t>
-  </si>
-  <si>
-    <t>68.644068</t>
-  </si>
-  <si>
-    <t>0.211329</t>
-  </si>
-  <si>
-    <t>0.228992</t>
-  </si>
-  <si>
-    <t>0.609390</t>
-  </si>
-  <si>
-    <t>93.474576</t>
-  </si>
-  <si>
-    <t>90.228013</t>
-  </si>
-  <si>
-    <t>83.898305</t>
-  </si>
-  <si>
-    <t>0.214379</t>
-  </si>
-  <si>
-    <t>0.263629</t>
-  </si>
-  <si>
-    <t>0.424915</t>
-  </si>
-  <si>
-    <t>63.050847</t>
-  </si>
-  <si>
-    <t>60.667752</t>
-  </si>
-  <si>
-    <t>52.542373</t>
-  </si>
-  <si>
-    <t>0.932675</t>
-  </si>
-  <si>
-    <t>0.939970</t>
-  </si>
-  <si>
-    <t>0.938925</t>
-  </si>
-  <si>
-    <t>64.364407</t>
-  </si>
-  <si>
-    <t>64.657980</t>
-  </si>
-  <si>
-    <t>63.559322</t>
-  </si>
-  <si>
-    <t>1.047527</t>
-  </si>
-  <si>
-    <t>1.049439</t>
-  </si>
-  <si>
-    <t>1.037579</t>
-  </si>
-  <si>
-    <t>87.923729</t>
-  </si>
-  <si>
-    <t>84.771987</t>
-  </si>
-  <si>
-    <t>74.788136</t>
-  </si>
-  <si>
-    <t>0.373244</t>
-  </si>
-  <si>
-    <t>0.371984</t>
-  </si>
-  <si>
-    <t>0.508475</t>
-  </si>
-  <si>
-    <t>98.389831</t>
-  </si>
-  <si>
-    <t>96.905537</t>
-  </si>
-  <si>
-    <t>91.949153</t>
-  </si>
-  <si>
-    <t>0.000362</t>
-  </si>
-  <si>
-    <t>0.000387</t>
-  </si>
-  <si>
-    <t>0.375501</t>
-  </si>
-  <si>
-    <t>97.627119</t>
-  </si>
-  <si>
-    <t>95.602606</t>
-  </si>
-  <si>
-    <t>90.042373</t>
-  </si>
-  <si>
-    <t>0.043346</t>
-  </si>
-  <si>
-    <t>0.062636</t>
-  </si>
-  <si>
-    <t>0.255858</t>
-  </si>
-  <si>
-    <t>96.016949</t>
-  </si>
-  <si>
-    <t>92.833876</t>
-  </si>
-  <si>
-    <t>84.745763</t>
-  </si>
-  <si>
-    <t>0.063034</t>
-  </si>
-  <si>
-    <t>0.095396</t>
-  </si>
-  <si>
-    <t>0.364771</t>
-  </si>
-  <si>
-    <t>96.991525</t>
-  </si>
-  <si>
-    <t>96.661238</t>
-  </si>
-  <si>
-    <t>95.550847</t>
-  </si>
-  <si>
-    <t>0.144844</t>
-  </si>
-  <si>
-    <t>0.141552</t>
-  </si>
-  <si>
-    <t>0.210903</t>
-  </si>
-  <si>
-    <t>96.949153</t>
-  </si>
-  <si>
-    <t>95.358306</t>
-  </si>
-  <si>
-    <t>91.313559</t>
-  </si>
-  <si>
-    <t>0.060231</t>
-  </si>
-  <si>
-    <t>0.070426</t>
-  </si>
-  <si>
-    <t>0.207525</t>
-  </si>
-  <si>
-    <t>97.457627</t>
-  </si>
-  <si>
-    <t>95.846906</t>
-  </si>
-  <si>
-    <t>92.796610</t>
-  </si>
-  <si>
-    <t>0.105777</t>
-  </si>
-  <si>
-    <t>0.142657</t>
-  </si>
-  <si>
-    <t>0.236763</t>
-  </si>
-  <si>
-    <t>99.830508</t>
-  </si>
-  <si>
-    <t>99.674267</t>
-  </si>
-  <si>
-    <t>0.000340</t>
-  </si>
-  <si>
-    <t>0.008744</t>
-  </si>
-  <si>
-    <t>0.053519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	85.381356	</t>
-  </si>
-  <si>
-    <t>84.576271</t>
-  </si>
-  <si>
-    <t>65.042373</t>
-  </si>
-  <si>
-    <t>50.593220</t>
-  </si>
-  <si>
-    <t>77.457627</t>
-  </si>
-  <si>
-    <t>99.915254</t>
-  </si>
-  <si>
-    <t>85.830619</t>
-  </si>
-  <si>
-    <t>82.980456</t>
-  </si>
-  <si>
-    <t>67.345277</t>
-  </si>
-  <si>
-    <t>49.185668</t>
-  </si>
-  <si>
-    <t>75.407166</t>
-  </si>
-  <si>
-    <t>99.837134</t>
-  </si>
-  <si>
-    <t>88.559322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.381356	</t>
-  </si>
-  <si>
-    <t>71.822034</t>
-  </si>
-  <si>
-    <t>43.432203</t>
-  </si>
-  <si>
-    <t>74.364407</t>
-  </si>
-  <si>
-    <t>99.576271</t>
-  </si>
-  <si>
-    <t>0.522318</t>
-  </si>
-  <si>
-    <t>0.503816</t>
-  </si>
-  <si>
-    <t>0.993737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.313484	</t>
-  </si>
-  <si>
-    <t>0.684670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000957	</t>
-  </si>
-  <si>
-    <t>0.529665</t>
-  </si>
-  <si>
-    <t>0.551837</t>
-  </si>
-  <si>
-    <t>0.981733</t>
-  </si>
-  <si>
-    <t>1.312813</t>
-  </si>
-  <si>
-    <t>0.733525</t>
-  </si>
-  <si>
-    <t>0.004141</t>
-  </si>
-  <si>
-    <t>0.464089</t>
-  </si>
-  <si>
-    <t>0.489256</t>
-  </si>
-  <si>
-    <t>0.948867</t>
-  </si>
-  <si>
-    <t>1.327955</t>
-  </si>
-  <si>
-    <t>0.730239</t>
-  </si>
-  <si>
-    <t>0.021215</t>
+    <t xml:space="preserve">	85,381356	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,313484	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,000957	</t>
   </si>
 </sst>
 </file>
@@ -1534,6 +1132,2192 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fi-FI"/>
+              <a:t>CWT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>With Filter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ScenarioBetha - 10 000'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>resnet18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>resnet50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vgg16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>alexnet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>googlenet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>inceptionv3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ScenarioBetha - 10 000'!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98.172668999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.127118999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.036320000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.277240000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.612590999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BE7-4FAD-83D1-B3EAE5279BB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Without Filter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'ScenarioBetha - 10 000'!$E$12:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>68.644068000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.898304999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.542372999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.559322000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.788135999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5BE7-4FAD-83D1-B3EAE5279BB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1366077151"/>
+        <c:axId val="1366080031"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1366077151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Models</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fi-FI" baseline="0"/>
+                  <a:t> for Transfer Learning</a:t>
+                </a:r>
+                <a:endParaRPr lang="fi-FI"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1366080031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1366080031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Test Accuracy [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1366077151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fi-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fi-FI"/>
+              <a:t>STFT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>With Filter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ScenarioBetha - 10 000'!$B$20:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>resnet18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>resnet50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>vgg16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>alexnet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>googlenet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ScenarioBetha - 10 000'!$E$20:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>90.042372999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.745762999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.550847000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.313558999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.796610000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3E29-4B66-86F9-A6E5A1C99493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Without Filter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'ScenarioBetha - 10 000'!$E$28:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>88.559321999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.381349999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.822034000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.432203000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.364407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3E29-4B66-86F9-A6E5A1C99493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1351319567"/>
+        <c:axId val="1351320527"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1351319567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Models</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fi-FI" baseline="0"/>
+                  <a:t> for Transfer Learning</a:t>
+                </a:r>
+                <a:endParaRPr lang="fi-FI"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351320527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1351320527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Test Accuracy [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351319567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fi-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>424542</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D025C42-EEF2-28E6-8DD4-D644173868EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>192314</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>46567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>492276</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>13911</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F2A3A1-3F8A-F8E5-E1B7-47F2F698C247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3048,8 +4832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AB1432-3178-4F93-AF9A-C2C5F4EF6D76}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3114,23 +4898,23 @@
       <c r="B3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>272</v>
+      <c r="C3" s="17">
+        <v>98.622881000000007</v>
+      </c>
+      <c r="D3" s="17">
+        <v>98.411297000000005</v>
+      </c>
+      <c r="E3" s="17">
+        <v>98.172668999999999</v>
+      </c>
+      <c r="F3" s="17">
+        <v>5.7919999999999999E-2</v>
+      </c>
+      <c r="G3" s="17">
+        <v>6.7128999999999994E-2</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.13855600000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3138,23 +4922,23 @@
       <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>278</v>
+      <c r="C4" s="17">
+        <v>96.687211000000005</v>
+      </c>
+      <c r="D4" s="17">
+        <v>95.862069000000005</v>
+      </c>
+      <c r="E4" s="17">
+        <v>95.127118999999993</v>
+      </c>
+      <c r="F4" s="17">
+        <v>3.2738999999999997E-2</v>
+      </c>
+      <c r="G4" s="17">
+        <v>5.3703000000000001E-2</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.276424</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3162,23 +4946,23 @@
       <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>284</v>
+      <c r="C5" s="17">
+        <v>96.109398999999996</v>
+      </c>
+      <c r="D5" s="17">
+        <v>95.492610999999997</v>
+      </c>
+      <c r="E5" s="17">
+        <v>95.036320000000003</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.108323</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.123062</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.30313000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3186,23 +4970,23 @@
       <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>290</v>
+      <c r="C6" s="17">
+        <v>97.226501999999996</v>
+      </c>
+      <c r="D6" s="17">
+        <v>96.798029999999997</v>
+      </c>
+      <c r="E6" s="17">
+        <v>96.277240000000006</v>
+      </c>
+      <c r="F6" s="17">
+        <v>7.8355999999999995E-2</v>
+      </c>
+      <c r="G6" s="17">
+        <v>7.9410999999999995E-2</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.215249</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -3210,51 +4994,51 @@
       <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>296</v>
+      <c r="C7" s="17">
+        <v>95.974575999999999</v>
+      </c>
+      <c r="D7" s="17">
+        <v>95.221675000000005</v>
+      </c>
+      <c r="E7" s="17">
+        <v>94.612590999999995</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.11230800000000001</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.12765199999999999</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.326708</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>302</v>
+        <v>267</v>
+      </c>
+      <c r="C8" s="17">
+        <v>99.727603000000002</v>
+      </c>
+      <c r="D8" s="17">
+        <v>99.585634999999996</v>
+      </c>
+      <c r="E8" s="17">
+        <v>99.364407</v>
+      </c>
+      <c r="F8" s="17">
+        <v>3.4900000000000003E-4</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1.4859999999999999E-3</v>
+      </c>
+      <c r="H8" s="17">
+        <v>4.2116000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
@@ -3296,28 +5080,28 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>315</v>
+      <c r="C12" s="17">
+        <v>90.084745999999996</v>
+      </c>
+      <c r="D12" s="17">
+        <v>85.016287000000005</v>
+      </c>
+      <c r="E12" s="17">
+        <v>68.644068000000004</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.21132899999999999</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.228992</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.60938999999999999</v>
       </c>
       <c r="L12"/>
     </row>
@@ -3326,23 +5110,23 @@
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>321</v>
+      <c r="C13" s="17">
+        <v>93.474575999999999</v>
+      </c>
+      <c r="D13" s="17">
+        <v>90.228013000000004</v>
+      </c>
+      <c r="E13" s="17">
+        <v>83.898304999999993</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.21437899999999999</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.263629</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.42491499999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -3350,23 +5134,23 @@
       <c r="B14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>327</v>
+      <c r="C14" s="17">
+        <v>63.050846999999997</v>
+      </c>
+      <c r="D14" s="17">
+        <v>60.667752</v>
+      </c>
+      <c r="E14" s="17">
+        <v>52.542372999999998</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.93267500000000003</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.93996999999999997</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.93892500000000001</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -3374,23 +5158,23 @@
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>333</v>
+      <c r="C15" s="17">
+        <v>64.364407</v>
+      </c>
+      <c r="D15" s="17">
+        <v>64.657979999999995</v>
+      </c>
+      <c r="E15" s="17">
+        <v>63.559322000000002</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1.0475270000000001</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1.049439</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1.037579</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -3398,51 +5182,51 @@
       <c r="B16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>339</v>
+      <c r="C16" s="17">
+        <v>87.923728999999994</v>
+      </c>
+      <c r="D16" s="17">
+        <v>84.771986999999996</v>
+      </c>
+      <c r="E16" s="17">
+        <v>74.788135999999994</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.37324400000000002</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.37198399999999998</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.50847500000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>345</v>
+        <v>267</v>
+      </c>
+      <c r="C17" s="17">
+        <v>98.389831000000001</v>
+      </c>
+      <c r="D17" s="17">
+        <v>96.905536999999995</v>
+      </c>
+      <c r="E17" s="17">
+        <v>91.949152999999995</v>
+      </c>
+      <c r="F17" s="17">
+        <v>3.6200000000000002E-4</v>
+      </c>
+      <c r="G17" s="17">
+        <v>3.8699999999999997E-4</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0.37550099999999997</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>11</v>
@@ -3484,28 +5268,28 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>351</v>
+      <c r="C20" s="17">
+        <v>97.627118999999993</v>
+      </c>
+      <c r="D20" s="17">
+        <v>95.602605999999994</v>
+      </c>
+      <c r="E20" s="17">
+        <v>90.042372999999998</v>
+      </c>
+      <c r="F20" s="17">
+        <v>4.3346000000000003E-2</v>
+      </c>
+      <c r="G20" s="17">
+        <v>6.2635999999999997E-2</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0.25585799999999997</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3513,23 +5297,23 @@
       <c r="B21" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>357</v>
+      <c r="C21" s="17">
+        <v>96.016948999999997</v>
+      </c>
+      <c r="D21" s="17">
+        <v>92.833876000000004</v>
+      </c>
+      <c r="E21" s="17">
+        <v>84.745762999999997</v>
+      </c>
+      <c r="F21" s="17">
+        <v>6.3034000000000007E-2</v>
+      </c>
+      <c r="G21" s="17">
+        <v>9.5395999999999995E-2</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0.36477100000000001</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -3537,23 +5321,23 @@
       <c r="B22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>363</v>
+      <c r="C22" s="17">
+        <v>96.991524999999996</v>
+      </c>
+      <c r="D22" s="17">
+        <v>96.661237999999997</v>
+      </c>
+      <c r="E22" s="17">
+        <v>95.550847000000005</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0.144844</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0.14155200000000001</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0.21090300000000001</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3561,23 +5345,23 @@
       <c r="B23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>369</v>
+      <c r="C23" s="17">
+        <v>96.949152999999995</v>
+      </c>
+      <c r="D23" s="17">
+        <v>95.358305999999999</v>
+      </c>
+      <c r="E23" s="17">
+        <v>91.313558999999998</v>
+      </c>
+      <c r="F23" s="17">
+        <v>6.0231E-2</v>
+      </c>
+      <c r="G23" s="17">
+        <v>7.0426000000000002E-2</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0.20752499999999999</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3585,51 +5369,51 @@
       <c r="B24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>375</v>
+      <c r="C24" s="17">
+        <v>97.457627000000002</v>
+      </c>
+      <c r="D24" s="17">
+        <v>95.846906000000004</v>
+      </c>
+      <c r="E24" s="17">
+        <v>92.796610000000001</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0.105777</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0.14265700000000001</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0.236763</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>380</v>
+        <v>267</v>
+      </c>
+      <c r="C25" s="17">
+        <v>99.830507999999995</v>
+      </c>
+      <c r="D25" s="17">
+        <v>99.674267</v>
+      </c>
+      <c r="E25" s="17">
+        <v>99.364407</v>
+      </c>
+      <c r="F25" s="17">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="G25" s="17">
+        <v>8.744E-3</v>
+      </c>
+      <c r="H25" s="17">
+        <v>5.3518999999999997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>11</v>
@@ -3671,28 +5455,28 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>411</v>
+        <v>274</v>
+      </c>
+      <c r="D28" s="17">
+        <v>85.830618999999999</v>
+      </c>
+      <c r="E28" s="17">
+        <v>88.559321999999995</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0.52231799999999995</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0.52966500000000005</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0.46408899999999997</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3700,23 +5484,23 @@
       <c r="B29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>412</v>
+      <c r="C29" s="17">
+        <v>84.576271000000006</v>
+      </c>
+      <c r="D29" s="17">
+        <v>82.980456000000004</v>
+      </c>
+      <c r="E29" s="17">
+        <v>85.381349999999998</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0.50381600000000004</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0.55183700000000002</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0.48925600000000002</v>
       </c>
       <c r="L29"/>
     </row>
@@ -3725,23 +5509,23 @@
       <c r="B30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>413</v>
+      <c r="C30" s="17">
+        <v>65.042372999999998</v>
+      </c>
+      <c r="D30" s="17">
+        <v>67.345276999999996</v>
+      </c>
+      <c r="E30" s="17">
+        <v>71.822034000000002</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0.99373699999999998</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0.98173299999999997</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0.94886700000000002</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -3749,23 +5533,23 @@
       <c r="B31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>396</v>
+      <c r="C31" s="17">
+        <v>50.593220000000002</v>
+      </c>
+      <c r="D31" s="17">
+        <v>49.185668</v>
+      </c>
+      <c r="E31" s="17">
+        <v>43.432203000000001</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>414</v>
+        <v>275</v>
+      </c>
+      <c r="G31" s="17">
+        <v>1.312813</v>
+      </c>
+      <c r="H31" s="17">
+        <v>1.327955</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -3773,50 +5557,51 @@
       <c r="B32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>415</v>
+      <c r="C32" s="17">
+        <v>77.457627000000002</v>
+      </c>
+      <c r="D32" s="17">
+        <v>75.407166000000004</v>
+      </c>
+      <c r="E32" s="17">
+        <v>74.364407</v>
+      </c>
+      <c r="F32" s="17">
+        <v>0.68467</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0.73352499999999998</v>
+      </c>
+      <c r="H32" s="17">
+        <v>0.73023899999999997</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>398</v>
+        <v>267</v>
+      </c>
+      <c r="C33" s="17">
+        <v>99.915254000000004</v>
+      </c>
+      <c r="D33" s="17">
+        <v>99.837134000000006</v>
+      </c>
+      <c r="E33" s="17">
+        <v>99.576271000000006</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>416</v>
+        <v>276</v>
+      </c>
+      <c r="G33" s="17">
+        <v>4.1409999999999997E-3</v>
+      </c>
+      <c r="H33" s="17">
+        <v>2.1215000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
